--- a/src/main/resources/static/questionsList.xlsx
+++ b/src/main/resources/static/questionsList.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>题目内容</t>
     <rPh sb="0" eb="1">
@@ -91,6 +91,64 @@
   </si>
   <si>
     <t>类型（单选0，多选1）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1+2=</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你最爱的人是谁</t>
+    <rPh sb="0" eb="1">
+      <t>ni</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>zui ai</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>d</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ren</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>shei</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爸爸</t>
+    <rPh sb="0" eb="1">
+      <t>ba b</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈</t>
+    <rPh sb="0" eb="1">
+      <t>ma m</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>爷爷</t>
+    <rPh sb="0" eb="1">
+      <t>ye ye</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奶奶</t>
+    <rPh sb="0" eb="1">
+      <t>nai n</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 3 4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,15 +484,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="32.6640625" customWidth="1"/>
+    <col min="7" max="7" width="40.6640625" customWidth="1"/>
+    <col min="8" max="8" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
@@ -481,6 +542,52 @@
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
